--- a/data/pca/factorExposure/factorExposure_2009-06-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01731596040023928</v>
+        <v>0.01680660946943553</v>
       </c>
       <c r="C2">
-        <v>0.00156504840964576</v>
+        <v>0.001167411665723101</v>
       </c>
       <c r="D2">
-        <v>-0.00871647009507704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00906076739245675</v>
+      </c>
+      <c r="E2">
+        <v>0.001771944621549172</v>
+      </c>
+      <c r="F2">
+        <v>-0.01214704081720246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09052943738536615</v>
+        <v>0.09171435624084877</v>
       </c>
       <c r="C4">
-        <v>0.01972202915929096</v>
+        <v>0.01492434877856068</v>
       </c>
       <c r="D4">
-        <v>-0.07716389753515684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08191342815171371</v>
+      </c>
+      <c r="E4">
+        <v>0.02706033691108547</v>
+      </c>
+      <c r="F4">
+        <v>0.03101796695957056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.377950700710059e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.40283821083288e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5.162829926933609e-07</v>
+      </c>
+      <c r="E5">
+        <v>-3.946038138248564e-05</v>
+      </c>
+      <c r="F5">
+        <v>-7.783121833451619e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1531827471377376</v>
+        <v>0.161463964049317</v>
       </c>
       <c r="C6">
-        <v>0.0299396998775212</v>
+        <v>0.02920610904309108</v>
       </c>
       <c r="D6">
-        <v>0.03585281808782743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02588771662318674</v>
+      </c>
+      <c r="E6">
+        <v>0.01120797399785837</v>
+      </c>
+      <c r="F6">
+        <v>0.04029101059244432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0603969716810584</v>
+        <v>0.06246893241650082</v>
       </c>
       <c r="C7">
-        <v>0.001937800766921334</v>
+        <v>-0.001426108594935338</v>
       </c>
       <c r="D7">
-        <v>-0.04844307663636806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05334401469991794</v>
+      </c>
+      <c r="E7">
+        <v>0.01436399032242217</v>
+      </c>
+      <c r="F7">
+        <v>0.04908973518909686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06121357852819245</v>
+        <v>0.05671463597709304</v>
       </c>
       <c r="C8">
-        <v>-0.01042187669083473</v>
+        <v>-0.01234051390669666</v>
       </c>
       <c r="D8">
-        <v>-0.02613114014160364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03065169429567628</v>
+      </c>
+      <c r="E8">
+        <v>0.01662289795221971</v>
+      </c>
+      <c r="F8">
+        <v>-0.02708708604629938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06979349748933446</v>
+        <v>0.07109706840364574</v>
       </c>
       <c r="C9">
-        <v>0.01567168411879137</v>
+        <v>0.01055384816820334</v>
       </c>
       <c r="D9">
-        <v>-0.07911442227415519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0850097982766542</v>
+      </c>
+      <c r="E9">
+        <v>0.02438778239777985</v>
+      </c>
+      <c r="F9">
+        <v>0.04768247044922373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08482719950611843</v>
+        <v>0.0867638748180786</v>
       </c>
       <c r="C10">
-        <v>0.01564820178378044</v>
+        <v>0.02155554075273342</v>
       </c>
       <c r="D10">
-        <v>0.1670138184634764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1594481544235026</v>
+      </c>
+      <c r="E10">
+        <v>-0.0338701502599909</v>
+      </c>
+      <c r="F10">
+        <v>-0.0578222615993251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09104834686320204</v>
+        <v>0.08777812194494772</v>
       </c>
       <c r="C11">
-        <v>0.01698055876818108</v>
+        <v>0.01169553401720389</v>
       </c>
       <c r="D11">
-        <v>-0.1099734039292067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169724736137094</v>
+      </c>
+      <c r="E11">
+        <v>0.0484096841637328</v>
+      </c>
+      <c r="F11">
+        <v>0.02435419370065701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09648813700323668</v>
+        <v>0.09068390187498881</v>
       </c>
       <c r="C12">
-        <v>0.01521798900032557</v>
+        <v>0.009140682899756182</v>
       </c>
       <c r="D12">
-        <v>-0.1170744945656224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1315865997776098</v>
+      </c>
+      <c r="E12">
+        <v>0.04854803579249255</v>
+      </c>
+      <c r="F12">
+        <v>0.03100422160078251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04460931153932016</v>
+        <v>0.04356599391784491</v>
       </c>
       <c r="C13">
-        <v>0.006501766903026531</v>
+        <v>0.002616778615249118</v>
       </c>
       <c r="D13">
-        <v>-0.04346220803031232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0539895012753305</v>
+      </c>
+      <c r="E13">
+        <v>-0.0003067069529437739</v>
+      </c>
+      <c r="F13">
+        <v>0.004709773430718225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01972904051256793</v>
+        <v>0.02358618817056682</v>
       </c>
       <c r="C14">
-        <v>0.01501163613791873</v>
+        <v>0.01379958330733649</v>
       </c>
       <c r="D14">
-        <v>-0.03132907704395879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03224990178910882</v>
+      </c>
+      <c r="E14">
+        <v>0.01855578904422723</v>
+      </c>
+      <c r="F14">
+        <v>0.01148132546338237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03456571483748911</v>
+        <v>0.03427973254011289</v>
       </c>
       <c r="C15">
-        <v>0.007522050834967826</v>
+        <v>0.00554503443463318</v>
       </c>
       <c r="D15">
-        <v>-0.04490730809998841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04651259942761273</v>
+      </c>
+      <c r="E15">
+        <v>0.008637707027767777</v>
+      </c>
+      <c r="F15">
+        <v>0.02926166514779698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07484257222583583</v>
+        <v>0.07255966423873511</v>
       </c>
       <c r="C16">
-        <v>0.007436254049537601</v>
+        <v>0.00178104530825794</v>
       </c>
       <c r="D16">
-        <v>-0.1147650215948231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278558064579561</v>
+      </c>
+      <c r="E16">
+        <v>0.06270151780365459</v>
+      </c>
+      <c r="F16">
+        <v>0.02711254607035784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0009914768423810762</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000295276287328712</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001938456104003775</v>
+      </c>
+      <c r="E17">
+        <v>0.00158533266863994</v>
+      </c>
+      <c r="F17">
+        <v>-0.002476500578095185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02370913823799923</v>
+        <v>0.04128943133009063</v>
       </c>
       <c r="C18">
-        <v>-0.002211913649987042</v>
+        <v>-0.002263170650972332</v>
       </c>
       <c r="D18">
-        <v>-0.02286759598000085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01552075332301745</v>
+      </c>
+      <c r="E18">
+        <v>-0.005058414319541868</v>
+      </c>
+      <c r="F18">
+        <v>-0.00946848724680161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06362406873728728</v>
+        <v>0.06216540849239346</v>
       </c>
       <c r="C20">
-        <v>0.0052042712376975</v>
+        <v>0.001142119227828989</v>
       </c>
       <c r="D20">
-        <v>-0.07162676733770745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07871039039144881</v>
+      </c>
+      <c r="E20">
+        <v>0.05836439983091652</v>
+      </c>
+      <c r="F20">
+        <v>0.02896111661673906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04062208979013809</v>
+        <v>0.0423227823927752</v>
       </c>
       <c r="C21">
-        <v>0.009807093343395176</v>
+        <v>0.006921014258619651</v>
       </c>
       <c r="D21">
-        <v>-0.03208538662260623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0357983590432923</v>
+      </c>
+      <c r="E21">
+        <v>-0.001175648022493545</v>
+      </c>
+      <c r="F21">
+        <v>-0.02440022012811111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04065378381479777</v>
+        <v>0.04406117679132927</v>
       </c>
       <c r="C22">
-        <v>0.001762344372601109</v>
+        <v>0.0009983723325135774</v>
       </c>
       <c r="D22">
-        <v>-0.0001886827447730007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006830157219880505</v>
+      </c>
+      <c r="E22">
+        <v>0.03710394411075686</v>
+      </c>
+      <c r="F22">
+        <v>-0.04649541325424214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04061602408049976</v>
+        <v>0.04403667642802373</v>
       </c>
       <c r="C23">
-        <v>0.001751443032845999</v>
+        <v>0.0009890779746131654</v>
       </c>
       <c r="D23">
-        <v>-0.0002132943365703398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006844199816716171</v>
+      </c>
+      <c r="E23">
+        <v>0.03728810499887165</v>
+      </c>
+      <c r="F23">
+        <v>-0.04646876100911362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08223230823509059</v>
+        <v>0.07837217183288524</v>
       </c>
       <c r="C24">
-        <v>0.00811346121222686</v>
+        <v>0.002624811934219503</v>
       </c>
       <c r="D24">
-        <v>-0.114154470252104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1199898640644633</v>
+      </c>
+      <c r="E24">
+        <v>0.05032815104655324</v>
+      </c>
+      <c r="F24">
+        <v>0.02979562290153908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08711079877361258</v>
+        <v>0.08358567355779982</v>
       </c>
       <c r="C25">
-        <v>0.0103803584295193</v>
+        <v>0.005387582374497713</v>
       </c>
       <c r="D25">
-        <v>-0.1020270159731414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092104345053571</v>
+      </c>
+      <c r="E25">
+        <v>0.03338941260050116</v>
+      </c>
+      <c r="F25">
+        <v>0.02737194565028928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05796381487726096</v>
+        <v>0.06020835151865723</v>
       </c>
       <c r="C26">
-        <v>0.0179876960356326</v>
+        <v>0.01478125925453503</v>
       </c>
       <c r="D26">
-        <v>-0.03290707606795467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04365089358388866</v>
+      </c>
+      <c r="E26">
+        <v>0.03026616250543342</v>
+      </c>
+      <c r="F26">
+        <v>-0.008269923903439065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.13293809365042</v>
+        <v>0.1421922868067007</v>
       </c>
       <c r="C28">
-        <v>0.01478986928137701</v>
+        <v>0.02358239169374122</v>
       </c>
       <c r="D28">
-        <v>0.2660992170625476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.26030945401805</v>
+      </c>
+      <c r="E28">
+        <v>-0.06919426196841225</v>
+      </c>
+      <c r="F28">
+        <v>0.004753588389643111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02612714332164209</v>
+        <v>0.02876422813006168</v>
       </c>
       <c r="C29">
-        <v>0.009777379742153149</v>
+        <v>0.009036432814240053</v>
       </c>
       <c r="D29">
-        <v>-0.0294956190507117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02997178283647602</v>
+      </c>
+      <c r="E29">
+        <v>0.01331748776263156</v>
+      </c>
+      <c r="F29">
+        <v>-0.01392828485692285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05975467751815682</v>
+        <v>0.05687180872829701</v>
       </c>
       <c r="C30">
-        <v>0.007990935572990274</v>
+        <v>0.002670082962243009</v>
       </c>
       <c r="D30">
-        <v>-0.07889571915256789</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08763486557388107</v>
+      </c>
+      <c r="E30">
+        <v>0.01387362203151999</v>
+      </c>
+      <c r="F30">
+        <v>0.07781093355293921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05088765295665656</v>
+        <v>0.05127454742974941</v>
       </c>
       <c r="C31">
-        <v>0.01743146418764541</v>
+        <v>0.01622949020824618</v>
       </c>
       <c r="D31">
-        <v>-0.02163930643467506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02416029460228085</v>
+      </c>
+      <c r="E31">
+        <v>0.02829894965477368</v>
+      </c>
+      <c r="F31">
+        <v>-0.0005950522175022118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04790824862118855</v>
+        <v>0.05181796481570752</v>
       </c>
       <c r="C32">
-        <v>0.002049690222425547</v>
+        <v>-0.001309525726677855</v>
       </c>
       <c r="D32">
-        <v>-0.02947204987675065</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03400802272538785</v>
+      </c>
+      <c r="E32">
+        <v>0.03334767518289047</v>
+      </c>
+      <c r="F32">
+        <v>0.002356299010072665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0901394773448939</v>
+        <v>0.08916082353628869</v>
       </c>
       <c r="C33">
-        <v>0.01310769381790909</v>
+        <v>0.007342845450400448</v>
       </c>
       <c r="D33">
-        <v>-0.0891217642089588</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1031801893864063</v>
+      </c>
+      <c r="E33">
+        <v>0.04724622901895299</v>
+      </c>
+      <c r="F33">
+        <v>0.04254264277834931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06930289460548683</v>
+        <v>0.06729648676170008</v>
       </c>
       <c r="C34">
-        <v>0.01553391840389711</v>
+        <v>0.01080588093608858</v>
       </c>
       <c r="D34">
-        <v>-0.09625654818837397</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1083247838236364</v>
+      </c>
+      <c r="E34">
+        <v>0.03603314028786924</v>
+      </c>
+      <c r="F34">
+        <v>0.0345920020848641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02559091953552115</v>
+        <v>0.02695350526945658</v>
       </c>
       <c r="C35">
-        <v>0.00387438891017162</v>
+        <v>0.00336277821100156</v>
       </c>
       <c r="D35">
-        <v>-0.008309244525162043</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01218509809864614</v>
+      </c>
+      <c r="E35">
+        <v>0.01344666448071429</v>
+      </c>
+      <c r="F35">
+        <v>0.0004156826578804705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02500028817693905</v>
+        <v>0.02854205355349985</v>
       </c>
       <c r="C36">
-        <v>0.008153583505056645</v>
+        <v>0.00714208493488416</v>
       </c>
       <c r="D36">
-        <v>-0.03822976278148277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0389670937754321</v>
+      </c>
+      <c r="E36">
+        <v>0.01785545748081152</v>
+      </c>
+      <c r="F36">
+        <v>0.01387386000572498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001751278569752349</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007232275140233033</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00280062990716227</v>
+      </c>
+      <c r="E37">
+        <v>0.0002339517827686999</v>
+      </c>
+      <c r="F37">
+        <v>-0.001610668566952911</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1110379232023312</v>
+        <v>0.09999002559330807</v>
       </c>
       <c r="C39">
-        <v>0.02286533797319625</v>
+        <v>0.01636314890248166</v>
       </c>
       <c r="D39">
-        <v>-0.1467810845830976</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1505528937336676</v>
+      </c>
+      <c r="E39">
+        <v>0.05928273855433214</v>
+      </c>
+      <c r="F39">
+        <v>0.02077023268404496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03877351799569707</v>
+        <v>0.0440554221568125</v>
       </c>
       <c r="C40">
-        <v>0.00941686922249858</v>
+        <v>0.007919120428785512</v>
       </c>
       <c r="D40">
-        <v>-0.02329085825810071</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03257510899079154</v>
+      </c>
+      <c r="E40">
+        <v>0.002410076192545625</v>
+      </c>
+      <c r="F40">
+        <v>-0.0153589021202038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02496707491266259</v>
+        <v>0.02677113959206763</v>
       </c>
       <c r="C41">
-        <v>0.007366563586064865</v>
+        <v>0.006869532202148169</v>
       </c>
       <c r="D41">
-        <v>-0.008297584781090694</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01043115375346293</v>
+      </c>
+      <c r="E41">
+        <v>0.01141289289381493</v>
+      </c>
+      <c r="F41">
+        <v>-0.007418289078079571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04196652093452162</v>
+        <v>0.04011099775000889</v>
       </c>
       <c r="C43">
-        <v>0.008490736823641563</v>
+        <v>0.007832487618230712</v>
       </c>
       <c r="D43">
-        <v>-0.01634127088781557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01891311522856876</v>
+      </c>
+      <c r="E43">
+        <v>0.02538010935456379</v>
+      </c>
+      <c r="F43">
+        <v>-0.01625560458097048</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06839641282004744</v>
+        <v>0.07784713937389216</v>
       </c>
       <c r="C44">
-        <v>0.02428508641225889</v>
+        <v>0.01992368457758569</v>
       </c>
       <c r="D44">
-        <v>-0.09529932103563403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09644566643849552</v>
+      </c>
+      <c r="E44">
+        <v>0.06320652767605339</v>
+      </c>
+      <c r="F44">
+        <v>0.1678436854209495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02139025368430564</v>
+        <v>0.0244670819868306</v>
       </c>
       <c r="C46">
-        <v>0.004535998305927456</v>
+        <v>0.00370471462630756</v>
       </c>
       <c r="D46">
-        <v>-0.008834883831795095</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01222079422541306</v>
+      </c>
+      <c r="E46">
+        <v>0.02643606206178783</v>
+      </c>
+      <c r="F46">
+        <v>-0.005573660467122441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05351995498037655</v>
+        <v>0.05265693537748427</v>
       </c>
       <c r="C47">
-        <v>0.005441208616181275</v>
+        <v>0.004627134507846816</v>
       </c>
       <c r="D47">
-        <v>-0.007065308291542133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01087402403765763</v>
+      </c>
+      <c r="E47">
+        <v>0.02356096602059822</v>
+      </c>
+      <c r="F47">
+        <v>-0.03176658492491177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04885380232253516</v>
+        <v>0.05135250525456741</v>
       </c>
       <c r="C48">
-        <v>0.005100641110335754</v>
+        <v>0.002511035470237933</v>
       </c>
       <c r="D48">
-        <v>-0.04656464438041364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04983835275094584</v>
+      </c>
+      <c r="E48">
+        <v>-0.004109536389534677</v>
+      </c>
+      <c r="F48">
+        <v>0.01247800794936437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1991025805733155</v>
+        <v>0.2005449544417172</v>
       </c>
       <c r="C49">
-        <v>0.02288554333555062</v>
+        <v>0.02136584869472639</v>
       </c>
       <c r="D49">
-        <v>0.01503746765647213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005580179721428279</v>
+      </c>
+      <c r="E49">
+        <v>0.03330535288976819</v>
+      </c>
+      <c r="F49">
+        <v>0.04925046003883797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.049066595254935</v>
+        <v>0.05120488271746396</v>
       </c>
       <c r="C50">
-        <v>0.01310198939177864</v>
+        <v>0.01185273984605493</v>
       </c>
       <c r="D50">
-        <v>-0.02116120549548725</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02332854118002749</v>
+      </c>
+      <c r="E50">
+        <v>0.02995725903126076</v>
+      </c>
+      <c r="F50">
+        <v>0.009050876300047184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1554173634739898</v>
+        <v>0.1483966284319945</v>
       </c>
       <c r="C52">
-        <v>0.02133172770514967</v>
+        <v>0.01938404857481438</v>
       </c>
       <c r="D52">
-        <v>-0.04155767533374011</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04256681788193917</v>
+      </c>
+      <c r="E52">
+        <v>0.02299573853982003</v>
+      </c>
+      <c r="F52">
+        <v>0.04176313976027227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1744717570424707</v>
+        <v>0.1687788195596222</v>
       </c>
       <c r="C53">
-        <v>0.02229565071436493</v>
+        <v>0.02243826781141254</v>
       </c>
       <c r="D53">
-        <v>-0.006395334352591734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005930974262367194</v>
+      </c>
+      <c r="E53">
+        <v>0.03082205438662909</v>
+      </c>
+      <c r="F53">
+        <v>0.07495172339488772</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01791621128931709</v>
+        <v>0.01991953984888268</v>
       </c>
       <c r="C54">
-        <v>0.01230316619874128</v>
+        <v>0.01111054321174238</v>
       </c>
       <c r="D54">
-        <v>-0.03032688718430728</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03112566084376506</v>
+      </c>
+      <c r="E54">
+        <v>0.02028298564791405</v>
+      </c>
+      <c r="F54">
+        <v>-0.002162599216789257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1186094587810878</v>
+        <v>0.1168519956954106</v>
       </c>
       <c r="C55">
-        <v>0.01969331120470822</v>
+        <v>0.01969758883113576</v>
       </c>
       <c r="D55">
-        <v>-0.004984589451934532</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008323922679415114</v>
+      </c>
+      <c r="E55">
+        <v>0.02749223372484174</v>
+      </c>
+      <c r="F55">
+        <v>0.04661213479813202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1807616226022903</v>
+        <v>0.175887796207171</v>
       </c>
       <c r="C56">
-        <v>0.0202436487988573</v>
+        <v>0.02064349689579501</v>
       </c>
       <c r="D56">
-        <v>0.007159517023317196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003103645502775366</v>
+      </c>
+      <c r="E56">
+        <v>0.03317964276707638</v>
+      </c>
+      <c r="F56">
+        <v>0.05530256159759196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04768541821015578</v>
+        <v>0.04600268667292303</v>
       </c>
       <c r="C58">
-        <v>0.005034557319817895</v>
+        <v>0.0003801571351431017</v>
       </c>
       <c r="D58">
-        <v>-0.06574117180749034</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07585268930792853</v>
+      </c>
+      <c r="E58">
+        <v>0.03651629686714418</v>
+      </c>
+      <c r="F58">
+        <v>-0.03838287856210162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1598000731594957</v>
+        <v>0.1664944876142398</v>
       </c>
       <c r="C59">
-        <v>0.0165517119406539</v>
+        <v>0.02385265373451877</v>
       </c>
       <c r="D59">
-        <v>0.2260307520475831</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2173813191521354</v>
+      </c>
+      <c r="E59">
+        <v>-0.05045932839811274</v>
+      </c>
+      <c r="F59">
+        <v>-0.03880366438036301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.238692474709311</v>
+        <v>0.2303940234631588</v>
       </c>
       <c r="C60">
-        <v>0.004164693172481068</v>
+        <v>0.001354018651746238</v>
       </c>
       <c r="D60">
-        <v>-0.03492332911870696</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03796994401970386</v>
+      </c>
+      <c r="E60">
+        <v>0.005505384126698153</v>
+      </c>
+      <c r="F60">
+        <v>0.006906291890967063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08163703004358525</v>
+        <v>0.07493002358727763</v>
       </c>
       <c r="C61">
-        <v>0.01677360419675302</v>
+        <v>0.01131813900446359</v>
       </c>
       <c r="D61">
-        <v>-0.1090505910329661</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1156536689141678</v>
+      </c>
+      <c r="E61">
+        <v>0.03711466913055766</v>
+      </c>
+      <c r="F61">
+        <v>0.007104821833155451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1731447349671888</v>
+        <v>0.1693017881015426</v>
       </c>
       <c r="C62">
-        <v>0.0241520492732247</v>
+        <v>0.02346839940118304</v>
       </c>
       <c r="D62">
-        <v>6.361630827233421e-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006021453021911065</v>
+      </c>
+      <c r="E62">
+        <v>0.03528001433954456</v>
+      </c>
+      <c r="F62">
+        <v>0.04136555151739946</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04142204728064876</v>
+        <v>0.04564022758173711</v>
       </c>
       <c r="C63">
-        <v>0.005357629357589619</v>
+        <v>0.001997383901628334</v>
       </c>
       <c r="D63">
-        <v>-0.04871054222826642</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05970971049545539</v>
+      </c>
+      <c r="E63">
+        <v>0.02425817125240378</v>
+      </c>
+      <c r="F63">
+        <v>0.0002354378314830236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1139958548210497</v>
+        <v>0.1110507439268374</v>
       </c>
       <c r="C64">
-        <v>0.01643487174229179</v>
+        <v>0.013295156181865</v>
       </c>
       <c r="D64">
-        <v>-0.03285422020870077</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04166553376372588</v>
+      </c>
+      <c r="E64">
+        <v>0.02393534345297431</v>
+      </c>
+      <c r="F64">
+        <v>0.02634123852411905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1448651115099583</v>
+        <v>0.1516657922805619</v>
       </c>
       <c r="C65">
-        <v>0.0361604535057279</v>
+        <v>0.03616522743687711</v>
       </c>
       <c r="D65">
-        <v>0.0589507239403579</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04589814969618829</v>
+      </c>
+      <c r="E65">
+        <v>0.007367783072723559</v>
+      </c>
+      <c r="F65">
+        <v>0.03773923916573579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1337694552541507</v>
+        <v>0.1201178147461897</v>
       </c>
       <c r="C66">
-        <v>0.02139277503386212</v>
+        <v>0.01473791296906304</v>
       </c>
       <c r="D66">
-        <v>-0.1290329832516053</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1395703720318173</v>
+      </c>
+      <c r="E66">
+        <v>0.06407853059947301</v>
+      </c>
+      <c r="F66">
+        <v>0.02638221770865981</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06375255037048731</v>
+        <v>0.05634966760294833</v>
       </c>
       <c r="C67">
-        <v>0.006125864450281966</v>
+        <v>0.003849110261666831</v>
       </c>
       <c r="D67">
-        <v>-0.05453048351418334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.058023968192198</v>
+      </c>
+      <c r="E67">
+        <v>0.02040325498599588</v>
+      </c>
+      <c r="F67">
+        <v>-0.03445779414862701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1060855593123813</v>
+        <v>0.1166994348966383</v>
       </c>
       <c r="C68">
-        <v>0.02482046995943948</v>
+        <v>0.03431091132349241</v>
       </c>
       <c r="D68">
-        <v>0.2640307766707339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611102374577156</v>
+      </c>
+      <c r="E68">
+        <v>-0.09049121982289231</v>
+      </c>
+      <c r="F68">
+        <v>0.00139145682260627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03879754932193803</v>
+        <v>0.03781017729285318</v>
       </c>
       <c r="C69">
-        <v>0.00220396790958901</v>
+        <v>0.001349102574368767</v>
       </c>
       <c r="D69">
-        <v>-0.007274598079580967</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008629439660268062</v>
+      </c>
+      <c r="E69">
+        <v>0.02412048866985587</v>
+      </c>
+      <c r="F69">
+        <v>-0.0004334649789702205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06616781091067502</v>
+        <v>0.06682799162063084</v>
       </c>
       <c r="C70">
-        <v>-0.0242626357700856</v>
+        <v>-0.02665273173499897</v>
       </c>
       <c r="D70">
-        <v>-0.02071246828402348</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0263067705810193</v>
+      </c>
+      <c r="E70">
+        <v>-0.03059916874931056</v>
+      </c>
+      <c r="F70">
+        <v>-0.1818839956808947</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.125002184537338</v>
+        <v>0.1366872557093155</v>
       </c>
       <c r="C71">
-        <v>0.02951069773473233</v>
+        <v>0.03897829352119112</v>
       </c>
       <c r="D71">
-        <v>0.2805598381073008</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2707829412493433</v>
+      </c>
+      <c r="E71">
+        <v>-0.09939570766455051</v>
+      </c>
+      <c r="F71">
+        <v>0.006882825425900067</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1373379443934491</v>
+        <v>0.1440406277627593</v>
       </c>
       <c r="C72">
-        <v>0.02877288200585895</v>
+        <v>0.02924017319342298</v>
       </c>
       <c r="D72">
-        <v>-0.0006095399882663218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003918659326949049</v>
+      </c>
+      <c r="E72">
+        <v>0.03965482236413305</v>
+      </c>
+      <c r="F72">
+        <v>0.02698845322671936</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2035992214311597</v>
+        <v>0.2039015860251562</v>
       </c>
       <c r="C73">
-        <v>0.01791646536433089</v>
+        <v>0.01450675658663378</v>
       </c>
       <c r="D73">
-        <v>-0.006831278131245501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01715150302601037</v>
+      </c>
+      <c r="E73">
+        <v>0.06700316795364461</v>
+      </c>
+      <c r="F73">
+        <v>0.04424995541722363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09180849148558436</v>
+        <v>0.0930761213793274</v>
       </c>
       <c r="C74">
-        <v>0.01481126785646442</v>
+        <v>0.01429220602198871</v>
       </c>
       <c r="D74">
-        <v>-0.01465029029876925</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01691732007453644</v>
+      </c>
+      <c r="E74">
+        <v>0.04375915992786907</v>
+      </c>
+      <c r="F74">
+        <v>0.05225815406856825</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1338223850792278</v>
+        <v>0.1261448248033573</v>
       </c>
       <c r="C75">
-        <v>0.0319336148214563</v>
+        <v>0.03024888822293124</v>
       </c>
       <c r="D75">
-        <v>-0.02307073642521494</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02915654551463653</v>
+      </c>
+      <c r="E75">
+        <v>0.05773541240627538</v>
+      </c>
+      <c r="F75">
+        <v>0.02123895720440967</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08216445154849419</v>
+        <v>0.09208632739146601</v>
       </c>
       <c r="C77">
-        <v>0.01404811620034216</v>
+        <v>0.008882698936432341</v>
       </c>
       <c r="D77">
-        <v>-0.1125132175487162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1157033218903344</v>
+      </c>
+      <c r="E77">
+        <v>0.04878461364986009</v>
+      </c>
+      <c r="F77">
+        <v>0.03510387571289036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1014777140495373</v>
+        <v>0.1013737807387299</v>
       </c>
       <c r="C78">
-        <v>0.04413492549859558</v>
+        <v>0.03967611458236236</v>
       </c>
       <c r="D78">
-        <v>-0.1127120390496338</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1125578684560585</v>
+      </c>
+      <c r="E78">
+        <v>0.08114422251990212</v>
+      </c>
+      <c r="F78">
+        <v>0.05246754821684292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1665203762042726</v>
+        <v>0.1634453020106716</v>
       </c>
       <c r="C79">
-        <v>0.02690247702110208</v>
+        <v>0.02578660324293279</v>
       </c>
       <c r="D79">
-        <v>-0.005602696345624395</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01158971786373253</v>
+      </c>
+      <c r="E79">
+        <v>0.04452460464672376</v>
+      </c>
+      <c r="F79">
+        <v>0.01288051149894824</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08163356426948613</v>
+        <v>0.07987733168792666</v>
       </c>
       <c r="C80">
-        <v>0.002414093024803497</v>
+        <v>-0.000161650221033413</v>
       </c>
       <c r="D80">
-        <v>-0.05271282814404361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05394407413576077</v>
+      </c>
+      <c r="E80">
+        <v>0.03399867533358585</v>
+      </c>
+      <c r="F80">
+        <v>-0.02683179297446265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1210248778506544</v>
+        <v>0.1162247045890836</v>
       </c>
       <c r="C81">
-        <v>0.03397439702020537</v>
+        <v>0.03366046134729388</v>
       </c>
       <c r="D81">
-        <v>-0.007934886530507909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01226836157437123</v>
+      </c>
+      <c r="E81">
+        <v>0.05377916735034503</v>
+      </c>
+      <c r="F81">
+        <v>0.01771167812797817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.166163981164284</v>
+        <v>0.1650183620685875</v>
       </c>
       <c r="C82">
-        <v>0.0274469606322052</v>
+        <v>0.02799722465577007</v>
       </c>
       <c r="D82">
-        <v>-0.004873656309814494</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002977943487717783</v>
+      </c>
+      <c r="E82">
+        <v>0.02891706622340832</v>
+      </c>
+      <c r="F82">
+        <v>0.0826021651733001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06370903027333415</v>
+        <v>0.05739876845686456</v>
       </c>
       <c r="C83">
-        <v>0.005956650429093342</v>
+        <v>0.003578548940905267</v>
       </c>
       <c r="D83">
-        <v>-0.0443952348097317</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04731100647006187</v>
+      </c>
+      <c r="E83">
+        <v>0.0007534719211895689</v>
+      </c>
+      <c r="F83">
+        <v>-0.03658813720741007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06136873931541791</v>
+        <v>0.05554568907874972</v>
       </c>
       <c r="C84">
-        <v>0.01368139638974551</v>
+        <v>0.01103488264854413</v>
       </c>
       <c r="D84">
-        <v>-0.06937284498522361</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07238014984446706</v>
+      </c>
+      <c r="E84">
+        <v>0.01433091821948418</v>
+      </c>
+      <c r="F84">
+        <v>0.014843054180345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1394912619100665</v>
+        <v>0.1350237388515127</v>
       </c>
       <c r="C85">
-        <v>0.0308215739173225</v>
+        <v>0.03051448031237616</v>
       </c>
       <c r="D85">
-        <v>-0.006414527129784658</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.00893658262196712</v>
+      </c>
+      <c r="E85">
+        <v>0.03688741911313079</v>
+      </c>
+      <c r="F85">
+        <v>0.04804707376563483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1020503252288898</v>
+        <v>0.09317420739169119</v>
       </c>
       <c r="C86">
-        <v>-0.002511389272411174</v>
+        <v>-0.00518925166200503</v>
       </c>
       <c r="D86">
-        <v>-0.01338432606784944</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04948094588020045</v>
+      </c>
+      <c r="E86">
+        <v>0.2198640784912672</v>
+      </c>
+      <c r="F86">
+        <v>-0.8994773522921571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.0965359078636288</v>
+        <v>0.09289822615775642</v>
       </c>
       <c r="C87">
-        <v>0.02833937235722962</v>
+        <v>0.02021168501517611</v>
       </c>
       <c r="D87">
-        <v>-0.07303953170494072</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09488854534821747</v>
+      </c>
+      <c r="E87">
+        <v>-0.0520868074627379</v>
+      </c>
+      <c r="F87">
+        <v>0.05051324470643714</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06248705955007006</v>
+        <v>0.06079570159487838</v>
       </c>
       <c r="C88">
-        <v>0.005575180508346801</v>
+        <v>0.00282289126378345</v>
       </c>
       <c r="D88">
-        <v>-0.0492447398501203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04950589873651316</v>
+      </c>
+      <c r="E88">
+        <v>0.0243984631063629</v>
+      </c>
+      <c r="F88">
+        <v>0.0138034796783028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1166628703117601</v>
+        <v>0.1266082790626012</v>
       </c>
       <c r="C89">
-        <v>0.005921721388001342</v>
+        <v>0.01445253976320807</v>
       </c>
       <c r="D89">
-        <v>0.2424089110559408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2424643618109461</v>
+      </c>
+      <c r="E89">
+        <v>-0.09241496743036628</v>
+      </c>
+      <c r="F89">
+        <v>-0.007557931205097568</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1374731690555765</v>
+        <v>0.1519826940065793</v>
       </c>
       <c r="C90">
-        <v>0.02584025873393183</v>
+        <v>0.03581164518770785</v>
       </c>
       <c r="D90">
-        <v>0.2671300739351514</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2681872690433448</v>
+      </c>
+      <c r="E90">
+        <v>-0.1153381761123151</v>
+      </c>
+      <c r="F90">
+        <v>-0.008044381015298942</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1214451836200508</v>
+        <v>0.1199012898259592</v>
       </c>
       <c r="C91">
-        <v>0.02149079399718574</v>
+        <v>0.021836064464381</v>
       </c>
       <c r="D91">
-        <v>0.02023949160255294</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01734391210150611</v>
+      </c>
+      <c r="E91">
+        <v>0.05328224940015278</v>
+      </c>
+      <c r="F91">
+        <v>-0.00173373133991988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1374507385335248</v>
+        <v>0.1449261792212973</v>
       </c>
       <c r="C92">
-        <v>0.01664330410548431</v>
+        <v>0.0267010248785129</v>
       </c>
       <c r="D92">
-        <v>0.2994265103027668</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2933498073373456</v>
+      </c>
+      <c r="E92">
+        <v>-0.1043202597781002</v>
+      </c>
+      <c r="F92">
+        <v>-0.01768342685312015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1405045059831621</v>
+        <v>0.1532601698033089</v>
       </c>
       <c r="C93">
-        <v>0.02201766190635883</v>
+        <v>0.03096145684162794</v>
       </c>
       <c r="D93">
-        <v>0.2666804980038576</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2645901307965954</v>
+      </c>
+      <c r="E93">
+        <v>-0.07766567821814324</v>
+      </c>
+      <c r="F93">
+        <v>0.003032320602447801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1339723243026317</v>
+        <v>0.126026756167803</v>
       </c>
       <c r="C94">
-        <v>0.02835783603080021</v>
+        <v>0.02629990173830219</v>
       </c>
       <c r="D94">
-        <v>-0.03806316349376217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04071009786451513</v>
+      </c>
+      <c r="E94">
+        <v>0.05807314515021093</v>
+      </c>
+      <c r="F94">
+        <v>0.03133056177928208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1278216239886239</v>
+        <v>0.1300336371367747</v>
       </c>
       <c r="C95">
-        <v>0.01062561470431111</v>
+        <v>0.005165843031429124</v>
       </c>
       <c r="D95">
-        <v>-0.08647525311166013</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09741559375038222</v>
+      </c>
+      <c r="E95">
+        <v>0.0579896157108062</v>
+      </c>
+      <c r="F95">
+        <v>0.001823699848840613</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.128004974651607</v>
+        <v>0.1219688680590864</v>
       </c>
       <c r="C96">
-        <v>-0.9860868219440153</v>
+        <v>-0.985745364779062</v>
       </c>
       <c r="D96">
-        <v>0.01903791876536041</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0514360390950603</v>
+      </c>
+      <c r="E96">
+        <v>0.05130068028630334</v>
+      </c>
+      <c r="F96">
+        <v>0.04207718107265144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1940666418677263</v>
+        <v>0.1976209889444749</v>
       </c>
       <c r="C97">
-        <v>-0.003073975380207748</v>
+        <v>-0.003243430394332596</v>
       </c>
       <c r="D97">
-        <v>0.02188931948755764</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02299959965491357</v>
+      </c>
+      <c r="E97">
+        <v>0.02328112174663158</v>
+      </c>
+      <c r="F97">
+        <v>-0.1195071118802914</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2004029041636318</v>
+        <v>0.2063951137468599</v>
       </c>
       <c r="C98">
-        <v>0.01294721964346203</v>
+        <v>0.009132573599391543</v>
       </c>
       <c r="D98">
-        <v>-0.01274208223307685</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01463104799109991</v>
+      </c>
+      <c r="E98">
+        <v>-0.07425852373171271</v>
+      </c>
+      <c r="F98">
+        <v>-0.09087996928473498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0555762194390017</v>
+        <v>0.05508879008697398</v>
       </c>
       <c r="C99">
-        <v>-0.001663369732771294</v>
+        <v>-0.003750602812874876</v>
       </c>
       <c r="D99">
-        <v>-0.03147333598546317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03896012250240918</v>
+      </c>
+      <c r="E99">
+        <v>0.02230781136465313</v>
+      </c>
+      <c r="F99">
+        <v>0.002704845020058784</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.148057970166182</v>
+        <v>0.1331229949777521</v>
       </c>
       <c r="C100">
-        <v>-0.03692892119635095</v>
+        <v>-0.04944972063690016</v>
       </c>
       <c r="D100">
-        <v>-0.392867266046179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3580293985945394</v>
+      </c>
+      <c r="E100">
+        <v>-0.883621709452153</v>
+      </c>
+      <c r="F100">
+        <v>-0.1458142429951806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02614344870933441</v>
+        <v>0.02882251972863178</v>
       </c>
       <c r="C101">
-        <v>0.009799382197311876</v>
+        <v>0.009067899293457471</v>
       </c>
       <c r="D101">
-        <v>-0.0291348560572858</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02960465558769962</v>
+      </c>
+      <c r="E101">
+        <v>0.01278420163508443</v>
+      </c>
+      <c r="F101">
+        <v>-0.01527901253036302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
